--- a/biology/Zoologie/Cicadelle_des_grillures_de_la_vigne/Cicadelle_des_grillures_de_la_vigne.xlsx
+++ b/biology/Zoologie/Cicadelle_des_grillures_de_la_vigne/Cicadelle_des_grillures_de_la_vigne.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Empoasca vitis
 Empoasca vitis, la cicadelle des grillures de la vigne ou cicadelle verte de la vigne, est une espèce d'insectes hémiptères de la famille des Cicadellidae.
@@ -514,7 +526,9 @@
           <t>Morphologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les adultes, de couleur vert clair avec des nuances dorées, ont de 3 à 4 mm de long. Les nymphes sont de couleur vert clair. Les formes juvéniles, fuselées et dépourvues d'ailes, sont toutefois capables de se déplacer en courant.
 </t>
@@ -545,7 +559,9 @@
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Empoasca vitis hiverne comme femelle fécondée sur des plantes toujours vertes, telles que les conifères, le lierre, les ronces, etc.
 Au printemps (fin avril – mai dans le centre et le nord de l'Italie) les femelles migrent sur la face inférieure des jeunes feuilles de vigne, où elle pondent sur les nervures de 15 à 20 œufs chacune. De ces œufs nait la première génération qui éclot en juin et atteint le stade adulte en 3 ou 4 semaines.
@@ -581,7 +597,9 @@
           <t>Distribution et hôtes</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">La Cicadelle des grillures de la vigne est répandue dans toute la région paléarctique. C'est une espèce polyphage qui peut se rencontrer sur des plantes herbacées (chanvre, Solanaceae) aussi bien que sur des arbres ou arbustes (tilleul, pommier, poirier, prunier, pêcher, chêne) même si l'hôte principal est la vigne cultivée.
 </t>
@@ -612,7 +630,9 @@
           <t>Dégâts</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">L'importance de ce phytophage a été sous-évaluée jusque dans les années 1970 du fait que ses dégâts étaient souvent attribués à des déséquilibres nutritionnels, à la sécheresse, à des brûlures ou à des effets de phytotoxicité.
 En général la gravité des attaques est limitée et les dégâts s'observent principalement sur les feuilles centrales de la partie basse des  pieds de vigne, dans les zones à l'ombre. Les dégâts dans la partie haute de la végétation, s'ils sont observés, apparaissent plus tard dans la saison.
@@ -651,15 +671,55 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Lutte chimique
-La lutte chimique s'applique en cas de dépassement d'un certain seuil, en sachant que le plus grand danger est représenté par les attaques des individus de la deuxième génération, au mois de juillet.
+          <t>Lutte chimique</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La lutte chimique s'applique en cas de dépassement d'un certain seuil, en sachant que le plus grand danger est représenté par les attaques des individus de la deuxième génération, au mois de juillet.
 En général, on pratique une intervention avec des esters phosphoriques actifs contre les cicadelles (première et deuxième génération) et la cochylis de la vigne, réalisée fin juin - début juillet.
 Ce traitement est également efficace contre une cicadelle bien plus dangereuse, Scaphoideus titanus, vecteur de la flavescence dorée.
-En cas de traitements spécifiques contre Empoasca vitis, on peut employer des produits à base de flufenoxuron ou etofenprox[1],
+En cas de traitements spécifiques contre Empoasca vitis, on peut employer des produits à base de flufenoxuron ou etofenprox,
 en ayant soin de faire ce traitement dans les premières heures de la matinée, quand l'insecte est encore engourdi et peu mobile, en pulvérisant soigneusement les parties intérieures de la végétation.
 Le soufre, employé comme fongicide, a un effet modéré de contrôle des cicadelles.
-Lutte biologique
-Lorsque les traitements insecticides sont insuffisants, il est possible de limiter les populations de cicadelles en ayant recours à des  prédateurs. En particulier, Anagrus atomus, hyménoptère de la famille des Mymaridae est un parasitoïde des œufs d’Empoasca vitis et d'autres cicadelles. Cet antagoniste se rencontre sur diverses plantes-hôtes, telles que la ronce, le noisetier et l'églantier, qui jouent un rôle important pour permettre son hivernage. Un autre hyménoptère, Stethynium triclavatum, peut aussi parasiter les œufs d’Empoasca vitis[2].
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Cicadelle_des_grillures_de_la_vigne</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cicadelle_des_grillures_de_la_vigne</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Lutte</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Lutte biologique</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Lorsque les traitements insecticides sont insuffisants, il est possible de limiter les populations de cicadelles en ayant recours à des  prédateurs. En particulier, Anagrus atomus, hyménoptère de la famille des Mymaridae est un parasitoïde des œufs d’Empoasca vitis et d'autres cicadelles. Cet antagoniste se rencontre sur diverses plantes-hôtes, telles que la ronce, le noisetier et l'églantier, qui jouent un rôle important pour permettre son hivernage. Un autre hyménoptère, Stethynium triclavatum, peut aussi parasiter les œufs d’Empoasca vitis.
 </t>
         </is>
       </c>
